--- a/excels/celiang.xlsx
+++ b/excels/celiang.xlsx
@@ -162,8 +162,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
@@ -503,7 +506,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -688,8 +691,8 @@
       <c r="A17" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="1">
-        <v>193.5</v>
+      <c r="B17" s="2">
+        <v>240.5</v>
       </c>
       <c r="C17" s="1">
         <v>0.9</v>
@@ -823,13 +826,13 @@
       <c r="B29">
         <v>120.5</v>
       </c>
-      <c r="C29">
-        <v>6.2</v>
+      <c r="C29" s="2">
+        <v>0.62</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555551" footer="0.51180555555555551"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111107" footer="0.51111111111111107"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -848,7 +851,7 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555551" footer="0.51180555555555551"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111107" footer="0.51111111111111107"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -867,7 +870,7 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555551" footer="0.51180555555555551"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111107" footer="0.51111111111111107"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
